--- a/application/controllers/BookingJobCard_Template-v8.xlsx
+++ b/application/controllers/BookingJobCard_Template-v8.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-dev/application/controllers/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>247AROUND SERVICE JOB CARD</t>
   </si>
@@ -22,12 +38,6 @@
     <t>{booking:booking_id}</t>
   </si>
   <si>
-    <t>Order / Serial No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{booking:order_id} </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -115,9 +125,6 @@
     <t>Engineer Comments</t>
   </si>
   <si>
-    <t>Sl. No.</t>
-  </si>
-  <si>
     <t>Part No.</t>
   </si>
   <si>
@@ -145,9 +152,6 @@
     <t>Service Tax</t>
   </si>
   <si>
-    <t>Customer Rating (1-5)</t>
-  </si>
-  <si>
     <t>Net Total</t>
   </si>
   <si>
@@ -155,32 +159,51 @@
   </si>
   <si>
     <t>Blackmelon Advance Technology Co. Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Serial No</t>
+  </si>
+  <si>
+    <t>S. No.</t>
+  </si>
+  <si>
+    <t>Rating (1-5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <b/>
-      <sz val="24.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,15 +211,16 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -207,6 +231,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -215,6 +240,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -225,6 +251,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -233,6 +260,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -241,6 +269,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -251,6 +280,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -263,6 +293,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -275,6 +306,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -287,6 +319,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -297,6 +330,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -307,6 +341,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -321,6 +356,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -331,6 +367,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -343,6 +380,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -355,6 +393,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -367,6 +406,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -379,6 +419,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -389,6 +430,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -403,6 +445,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -417,6 +460,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -431,6 +475,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -443,6 +488,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -455,6 +501,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -467,6 +514,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -481,6 +529,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -495,6 +544,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -509,469 +559,931 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="65">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>48985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>580573</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>584201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="117928" y="375556"/>
+          <a:ext cx="535216" cy="535216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="43" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="29"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="30"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="31"/>
+      <c r="C3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="9" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="9" t="s">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="2:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="9" t="s">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+    </row>
+    <row r="8" spans="2:7" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="61"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
+    </row>
+    <row r="9" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="18" t="s">
+      <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="21" t="s">
+    </row>
+    <row r="10" spans="2:7" ht="37" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23" t="s">
+      <c r="C10" s="51" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="24" t="s">
+      <c r="D10" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="E10" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="F10" s="53"/>
+      <c r="G10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="26" t="s">
+    </row>
+    <row r="11" spans="2:7" ht="22" x14ac:dyDescent="0.15">
+      <c r="B11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28" t="s">
+      <c r="C11" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="E11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="G11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="30" t="s">
+    </row>
+    <row r="12" spans="2:7" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="C12" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="12" t="s">
+      <c r="D14" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="34" t="s">
+      <c r="E14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="F14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="G14" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="39">
+        <v>1</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="39">
+        <v>2</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="40">
+        <v>3</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="2:7" ht="22" x14ac:dyDescent="0.15">
+      <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="2:7" ht="22" x14ac:dyDescent="0.15">
+      <c r="B19" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="37">
-        <v>2.0</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="40">
-        <v>3.0</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="43" t="s">
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="42"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="43" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="44" t="s">
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="42"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="43" t="s">
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="44" t="s">
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+    </row>
+    <row r="23" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="42"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="42"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="42"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="49"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:G8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/application/controllers/BookingJobCard_Template-v8.xlsx
+++ b/application/controllers/BookingJobCard_Template-v8.xlsx
@@ -639,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -653,126 +653,177 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,55 +833,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1161,21 +1170,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="43" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="33" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="29"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1183,7 +1192,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="30"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1191,279 +1200,286 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="2:7" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="31"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="2:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="2:7" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="61"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="47"/>
+      <c r="G9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="37" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="44" t="s">
+      <c r="F10" s="49"/>
+      <c r="G10" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="22" x14ac:dyDescent="0.15">
-      <c r="B11" s="32" t="s">
+    <row r="11" spans="2:7" ht="23" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
     </row>
     <row r="13" spans="2:7" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="6"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="39">
+      <c r="B15" s="29">
         <v>1</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="39">
+      <c r="B16" s="29">
         <v>2</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="40">
+      <c r="B17" s="30">
         <v>3</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:7" ht="22" x14ac:dyDescent="0.15">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="25" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="24"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7" ht="22" x14ac:dyDescent="0.15">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="60" t="s">
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="24"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="25" t="s">
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="25" t="s">
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="42"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="28"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:G8"/>
@@ -1475,13 +1491,6 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
